--- a/data/trans_orig/P79A5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79A5_2023-Habitat-trans_orig.xlsx
@@ -741,16 +741,16 @@
         <v>7781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4017</v>
+        <v>3629</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>8969</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8675597986046429</v>
+        <v>0.8675597986046428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4478673630661543</v>
+        <v>0.4046600507851201</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>6929</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3352</v>
+        <v>3561</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>7949</v>
@@ -771,7 +771,7 @@
         <v>0.87171862168785</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4217113466834028</v>
+        <v>0.4480158086552977</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>14710</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10470</v>
+        <v>10112</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>16918</v>
@@ -792,7 +792,7 @@
         <v>0.8695138026858835</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6188743907450482</v>
+        <v>0.5976791369952994</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4957</v>
+        <v>5320</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1324402013953572</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5526568315686314</v>
+        <v>0.5931136038765419</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4596</v>
+        <v>4388</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.12828137831215</v>
+        <v>0.1282813783121501</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5782449624783417</v>
+        <v>0.5519841913446998</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6448</v>
+        <v>6806</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1304861973141165</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3811256092549517</v>
+        <v>0.4023208630047002</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +958,7 @@
         <v>8826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5301</v>
+        <v>5316</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>9897</v>
@@ -967,7 +967,7 @@
         <v>0.8918317528469299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5355691817198697</v>
+        <v>0.537153671703881</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -979,19 +979,19 @@
         <v>10867</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6855</v>
+        <v>6987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13586</v>
+        <v>13571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7223802918238121</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4556571571427488</v>
+        <v>0.4644251463296635</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9031049897904144</v>
+        <v>0.9020881426647109</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -1000,19 +1000,19 @@
         <v>19695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14997</v>
+        <v>14168</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22856</v>
+        <v>22709</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7896214655981668</v>
+        <v>0.789621465598167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6012912104768682</v>
+        <v>0.5680259598514782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9163495203799032</v>
+        <v>0.910480977893443</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4596</v>
+        <v>4581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.10816824715307</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4644308182801341</v>
+        <v>0.4628463282961213</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1050,19 +1050,19 @@
         <v>4177</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8189</v>
+        <v>8057</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2776197081761879</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09689501020958555</v>
+        <v>0.09791185733528908</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5443428428572511</v>
+        <v>0.5355748536703361</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1071,19 +1071,19 @@
         <v>5247</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2086</v>
+        <v>2233</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9945</v>
+        <v>10774</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.210378534401833</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08365047962009672</v>
+        <v>0.08951902210655702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.398708789523132</v>
+        <v>0.4319740401485234</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>9542</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6356</v>
+        <v>6056</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>10412</v>
@@ -1184,7 +1184,7 @@
         <v>0.9164015426020222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6104625955122378</v>
+        <v>0.5816007524005242</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>10494</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7207</v>
+        <v>7363</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12144</v>
+        <v>12760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8189987562505138</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5624556136691281</v>
+        <v>0.5746774177829872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.947821961943894</v>
+        <v>0.9958645769954774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1217,19 +1217,19 @@
         <v>20035</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16546</v>
+        <v>16173</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22474</v>
+        <v>22427</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8626664139877477</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7124357571122165</v>
+        <v>0.6963735502155536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9676826307756811</v>
+        <v>0.9656422351907411</v>
       </c>
     </row>
     <row r="11">
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4056</v>
+        <v>4356</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08359845739797774</v>
+        <v>0.08359845739797775</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3895374044877624</v>
+        <v>0.4183992475994762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1267,19 +1267,19 @@
         <v>2319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>669</v>
+        <v>53</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5606</v>
+        <v>5450</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1810012437494863</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05217803805610599</v>
+        <v>0.004135423004529373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4375443863308719</v>
+        <v>0.4253225822170129</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1288,19 +1288,19 @@
         <v>3190</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>751</v>
+        <v>798</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6679</v>
+        <v>7052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1373335860122524</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03231736922431899</v>
+        <v>0.03435776480925878</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2875642428877833</v>
+        <v>0.3036264497844463</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>10575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5906</v>
+        <v>6486</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14914</v>
+        <v>14585</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5998420696937551</v>
+        <v>0.599842069693755</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3350233490701819</v>
+        <v>0.3679082026338708</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8459820574917775</v>
+        <v>0.827327403531618</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>6276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4061</v>
+        <v>3760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8032</v>
+        <v>7892</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.7214070413194671</v>
+        <v>0.7214070413194668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4667865233745943</v>
+        <v>0.4322824902540471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9233193194641418</v>
+        <v>0.9072214848117144</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1434,19 +1434,19 @@
         <v>16850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11717</v>
+        <v>11627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21031</v>
+        <v>21181</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6400082594389898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4450343028457929</v>
+        <v>0.4416318482825277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7987948677233758</v>
+        <v>0.8045050617106302</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>7054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2715</v>
+        <v>3044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11723</v>
+        <v>11143</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.400157930306245</v>
+        <v>0.4001579303062449</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1540179425082227</v>
+        <v>0.172672596468382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6649766509298189</v>
+        <v>0.6320917973661292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1484,19 +1484,19 @@
         <v>2423</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>667</v>
+        <v>807</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4638</v>
+        <v>4939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2785929586805329</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07668068053585811</v>
+        <v>0.09277851518828567</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5332134766254056</v>
+        <v>0.5677175097459537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1505,19 +1505,19 @@
         <v>9478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5297</v>
+        <v>5147</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14611</v>
+        <v>14701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3599917405610103</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2012051322766243</v>
+        <v>0.1954949382893698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5549656971542074</v>
+        <v>0.5583681517174723</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>36725</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30472</v>
+        <v>29642</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42073</v>
+        <v>41172</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7829098225848206</v>
+        <v>0.7829098225848208</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6496181376544554</v>
+        <v>0.6319128372185565</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8969337726780046</v>
+        <v>0.8777225746063466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -1630,19 +1630,19 @@
         <v>34566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29082</v>
+        <v>29187</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38957</v>
+        <v>38877</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7766793965992853</v>
+        <v>0.7766793965992854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6534516627295398</v>
+        <v>0.6558198130645958</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8753391610379334</v>
+        <v>0.8735485801946213</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1651,19 +1651,19 @@
         <v>71291</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63054</v>
+        <v>63065</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78208</v>
+        <v>78201</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7798764834244846</v>
+        <v>0.7798764834244849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6897675212564072</v>
+        <v>0.6898889039084847</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8555444733097026</v>
+        <v>0.8554703021197981</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>10183</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4835</v>
+        <v>5736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16436</v>
+        <v>17266</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2170901774151792</v>
+        <v>0.2170901774151793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.103066227321996</v>
+        <v>0.1222774253936535</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3503818623455462</v>
+        <v>0.3680871627814439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1701,19 +1701,19 @@
         <v>9939</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5548</v>
+        <v>5628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15423</v>
+        <v>15318</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2233206034007148</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1246608389620668</v>
+        <v>0.1264514198053785</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.346548337270461</v>
+        <v>0.3441801869354043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1722,19 +1722,19 @@
         <v>20122</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13205</v>
+        <v>13212</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28359</v>
+        <v>28348</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2201235165755154</v>
+        <v>0.2201235165755155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1444555266902974</v>
+        <v>0.1445296978802019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3102324787435927</v>
+        <v>0.3101110960915158</v>
       </c>
     </row>
     <row r="18">
